--- a/Análisis estadístico/Kaplan_Meier/Estimación_general/Outcome.xlsx
+++ b/Análisis estadístico/Kaplan_Meier/Estimación_general/Outcome.xlsx
@@ -1,21 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea8\Desktop\Proyecto_Long_COVID\Análisis estadístico\Kaplan_Meier\Estimación_general\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016858F8-8627-4ED4-896F-C978AF0083A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>n.risk</t>
+  </si>
+  <si>
+    <t>n.event</t>
+  </si>
+  <si>
+    <t>surv</t>
+  </si>
+  <si>
+    <t>std.err</t>
+  </si>
+  <si>
+    <t>lower 95% CI</t>
+  </si>
+  <si>
+    <t>upper 95% CI</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,22 +91,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +192,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +244,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,51 +437,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A153" sqref="A1:XFD153"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>n.risk</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>n.event</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>surv</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>std.err</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lower 95% CI</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>upper 95% CI</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -405,19 +485,19 @@
         <v>243</v>
       </c>
       <c r="D2">
-        <v>0.8750642673521851</v>
+        <v>0.87506426735218512</v>
       </c>
       <c r="E2">
-        <v>0.008567686287686751</v>
+        <v>8.5676862876867509E-3</v>
       </c>
       <c r="F2">
-        <v>0.8595446624813325</v>
+        <v>0.85954466248133254</v>
       </c>
       <c r="G2">
-        <v>0.8889812895547063</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.88898128955470634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -431,16 +511,16 @@
         <v>0.8435350763843863</v>
       </c>
       <c r="E3">
-        <v>0.009771534789384877</v>
+        <v>9.771534789384877E-3</v>
       </c>
       <c r="F3">
-        <v>0.8266076830304332</v>
+        <v>0.82660768303043319</v>
       </c>
       <c r="G3">
-        <v>0.8589535432092124</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.85895354320921236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -451,19 +531,19 @@
         <v>72</v>
       </c>
       <c r="D4">
-        <v>0.8062974764458971</v>
+        <v>0.80629747644589711</v>
       </c>
       <c r="E4">
-        <v>0.01112649656535851</v>
+        <v>1.112649656535851E-2</v>
       </c>
       <c r="F4">
         <v>0.7880035133648633</v>
       </c>
       <c r="G4">
-        <v>0.8231942733730492</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.82319427337304918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -474,19 +554,19 @@
         <v>59</v>
       </c>
       <c r="D5">
-        <v>0.7757048390759241</v>
+        <v>0.77570483907592414</v>
       </c>
       <c r="E5">
-        <v>0.01221316121893264</v>
+        <v>1.221316121893264E-2</v>
       </c>
       <c r="F5">
-        <v>0.7564757062313566</v>
+        <v>0.75647570623135663</v>
       </c>
       <c r="G5">
-        <v>0.7936289532776628</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.79362895327766281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -497,19 +577,19 @@
         <v>41</v>
       </c>
       <c r="D6">
-        <v>0.7544028307690835</v>
+        <v>0.75440283076908354</v>
       </c>
       <c r="E6">
-        <v>0.01296434251137996</v>
+        <v>1.2964342511379959E-2</v>
       </c>
       <c r="F6">
-        <v>0.7346073649602911</v>
+        <v>0.73460736496029111</v>
       </c>
       <c r="G6">
-        <v>0.7729577005349157</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.77295770053491575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -520,19 +600,19 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>0.7330272149698213</v>
+        <v>0.73302721496982126</v>
       </c>
       <c r="E7">
-        <v>0.01371957457940169</v>
+        <v>1.371957457940169E-2</v>
       </c>
       <c r="F7">
-        <v>0.7127242052143243</v>
+        <v>0.71272420521432434</v>
       </c>
       <c r="G7">
-        <v>0.7521543068444989</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.75215430684449891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -543,19 +623,19 @@
         <v>58</v>
       </c>
       <c r="D8">
-        <v>0.7027454639240593</v>
+        <v>0.70274546392405934</v>
       </c>
       <c r="E8">
-        <v>0.01479587999779372</v>
+        <v>1.4795879997793721E-2</v>
       </c>
       <c r="F8">
-        <v>0.6818229641989769</v>
+        <v>0.68182296419897692</v>
       </c>
       <c r="G8">
-        <v>0.7225843587429535</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.72258435874295346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -566,19 +646,19 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>0.6797560212380678</v>
+        <v>0.67975602123806778</v>
       </c>
       <c r="E9">
-        <v>0.01562252057729499</v>
+        <v>1.562252057729499E-2</v>
       </c>
       <c r="F9">
-        <v>0.658435931041106</v>
+        <v>0.65843593104110598</v>
       </c>
       <c r="G9">
-        <v>0.700063198300628</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.70006319830062802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -592,16 +672,16 @@
         <v>0.6619503935631107</v>
       </c>
       <c r="E10">
-        <v>0.01627225752749206</v>
+        <v>1.6272257527492059E-2</v>
       </c>
       <c r="F10">
-        <v>0.640361241082768</v>
+        <v>0.64036124108276804</v>
       </c>
       <c r="G10">
-        <v>0.6825816019545353</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.68258160195453532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -612,19 +692,19 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>0.6456901224058552</v>
+        <v>0.64569012240585522</v>
       </c>
       <c r="E11">
-        <v>0.0168742710334034</v>
+        <v>1.6874271033403401E-2</v>
       </c>
       <c r="F11">
-        <v>0.6238839411330823</v>
+        <v>0.62388394113308232</v>
       </c>
       <c r="G11">
         <v>0.6665887726724411</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -635,19 +715,19 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>0.6262511195344015</v>
+        <v>0.62625111953440149</v>
       </c>
       <c r="E12">
-        <v>0.0176067472090489</v>
+        <v>1.7606747209048899E-2</v>
       </c>
       <c r="F12">
-        <v>0.6042202216301417</v>
+        <v>0.60422022163014166</v>
       </c>
       <c r="G12">
         <v>0.6474350471082948</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -658,19 +738,19 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>0.609410753294821</v>
+        <v>0.60941075329482097</v>
       </c>
       <c r="E13">
-        <v>0.01825429459623353</v>
+        <v>1.8254294596233529E-2</v>
       </c>
       <c r="F13">
-        <v>0.5872148530377405</v>
+        <v>0.58721485303774046</v>
       </c>
       <c r="G13">
-        <v>0.6308124202574584</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.63081242025745843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -681,19 +761,19 @@
         <v>35</v>
       </c>
       <c r="D14">
-        <v>0.5909597356777633</v>
+        <v>0.59095973567776328</v>
       </c>
       <c r="E14">
-        <v>0.01897967408088934</v>
+        <v>1.8979674080889339E-2</v>
       </c>
       <c r="F14">
-        <v>0.568613796140407</v>
+        <v>0.56861379614040697</v>
       </c>
       <c r="G14">
-        <v>0.6125695269202712</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.61256952692027122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -704,19 +784,19 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>0.5766878994851876</v>
+        <v>0.57668789948518762</v>
       </c>
       <c r="E15">
-        <v>0.0195541281967081</v>
+        <v>1.9554128196708102E-2</v>
       </c>
       <c r="F15">
-        <v>0.5542468230414168</v>
+        <v>0.55424682304141681</v>
       </c>
       <c r="G15">
-        <v>0.5984379446545496</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0.59843794465454958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -727,19 +807,19 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>0.56556719618933</v>
+        <v>0.56556719618933005</v>
       </c>
       <c r="E16">
-        <v>0.02001049404692206</v>
+        <v>2.001049404692206E-2</v>
       </c>
       <c r="F16">
-        <v>0.5430646112243557</v>
+        <v>0.54306461122435568</v>
       </c>
       <c r="G16">
-        <v>0.5874140408984574</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.58741404089845739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -750,19 +830,19 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>0.5523158560724292</v>
+        <v>0.55231585607242917</v>
       </c>
       <c r="E17">
-        <v>0.0205646698855178</v>
+        <v>2.0564669885517799E-2</v>
       </c>
       <c r="F17">
-        <v>0.5297547929134502</v>
+        <v>0.52975479291345018</v>
       </c>
       <c r="G17">
-        <v>0.5742634254356132</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0.57426342543561315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -773,19 +853,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>0.5390517865221787</v>
+        <v>0.53905178652217867</v>
       </c>
       <c r="E18">
-        <v>0.0211315598699301</v>
+        <v>2.1131559869930101E-2</v>
       </c>
       <c r="F18">
         <v>0.5164482252302719</v>
       </c>
       <c r="G18">
-        <v>0.561084359006506</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.56108435900650599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -796,19 +876,19 @@
         <v>25</v>
       </c>
       <c r="D19">
-        <v>0.5257877169719283</v>
+        <v>0.52578771697192828</v>
       </c>
       <c r="E19">
-        <v>0.02171111672975595</v>
+        <v>2.1711116729755949E-2</v>
       </c>
       <c r="F19">
-        <v>0.503158174120402</v>
+        <v>0.50315817412040198</v>
       </c>
       <c r="G19">
-        <v>0.5478890260703443</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.54788902607034429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -819,19 +899,19 @@
         <v>15</v>
       </c>
       <c r="D20">
-        <v>0.5178051099328808</v>
+        <v>0.51780510993288076</v>
       </c>
       <c r="E20">
-        <v>0.0220675342948258</v>
+        <v>2.2067534294825799E-2</v>
       </c>
       <c r="F20">
-        <v>0.4951667369252374</v>
+        <v>0.49516673692523738</v>
       </c>
       <c r="G20">
-        <v>0.5399410510754789</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0.53994105107547885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -842,19 +922,19 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <v>0.5108797329481817</v>
+        <v>0.51087973294818168</v>
       </c>
       <c r="E21">
-        <v>0.02238129471370141</v>
+        <v>2.238129471370141E-2</v>
       </c>
       <c r="F21">
-        <v>0.4882382048963843</v>
+        <v>0.48823820489638431</v>
       </c>
       <c r="G21">
-        <v>0.5330412779781384</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0.53304127797813838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -865,19 +945,19 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>0.4953985289194489</v>
+        <v>0.49539852891944891</v>
       </c>
       <c r="E22">
-        <v>0.02309927445923945</v>
+        <v>2.3099274459239452E-2</v>
       </c>
       <c r="F22">
-        <v>0.4727647218334325</v>
+        <v>0.47276472183343249</v>
       </c>
       <c r="G22">
-        <v>0.5176027476242738</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.51760274762427383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -888,19 +968,19 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>0.4873823714935678</v>
+        <v>0.48738237149356778</v>
       </c>
       <c r="E23">
-        <v>0.02348018434870694</v>
+        <v>2.3480184348706939E-2</v>
       </c>
       <c r="F23">
-        <v>0.4647610061963802</v>
+        <v>0.46476100619638022</v>
       </c>
       <c r="G23">
-        <v>0.5096003794013134</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0.50960037940131342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -914,16 +994,16 @@
         <v>0.478831803572628</v>
       </c>
       <c r="E24">
-        <v>0.02389349822756214</v>
+        <v>2.3893498227562138E-2</v>
       </c>
       <c r="F24">
-        <v>0.456230369981604</v>
+        <v>0.45623036998160399</v>
       </c>
       <c r="G24">
-        <v>0.501057974948535</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.50105797494853499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -934,19 +1014,19 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>0.4729467199532996</v>
+        <v>0.47294671995329962</v>
       </c>
       <c r="E25">
-        <v>0.02418269094317956</v>
+        <v>2.4182690943179559E-2</v>
       </c>
       <c r="F25">
         <v>0.4503626999172396</v>
       </c>
       <c r="G25">
-        <v>0.495174874541021</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0.49517487454102099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -957,19 +1037,19 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>0.4606136422220911</v>
+        <v>0.46061364222209111</v>
       </c>
       <c r="E26">
-        <v>0.02480242018595484</v>
+        <v>2.480242018595484E-2</v>
       </c>
       <c r="F26">
-        <v>0.4380754628587658</v>
+        <v>0.43807546285876581</v>
       </c>
       <c r="G26">
-        <v>0.4828367569889737</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0.48283675698897371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -980,19 +1060,19 @@
         <v>24</v>
       </c>
       <c r="D27">
-        <v>0.4477143103512274</v>
+        <v>0.44771431035122738</v>
       </c>
       <c r="E27">
-        <v>0.02547114240927505</v>
+        <v>2.547114240927505E-2</v>
       </c>
       <c r="F27">
-        <v>0.4252382105910991</v>
+        <v>0.42523821059109912</v>
       </c>
       <c r="G27">
-        <v>0.469918270031035</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.46991827003103498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1003,19 +1083,19 @@
         <v>17</v>
       </c>
       <c r="D28">
-        <v>0.4385663016060701</v>
+        <v>0.43856630160607007</v>
       </c>
       <c r="E28">
-        <v>0.02595861867937445</v>
+        <v>2.5958618679374448E-2</v>
       </c>
       <c r="F28">
-        <v>0.4161434210531582</v>
+        <v>0.41614342105315821</v>
       </c>
       <c r="G28">
-        <v>0.4607476559423748</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.46074765594237482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1026,19 +1106,19 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>0.4321009507224425</v>
+        <v>0.43210095072244248</v>
       </c>
       <c r="E29">
-        <v>0.02631029167944354</v>
+        <v>2.6310291679443539E-2</v>
       </c>
       <c r="F29">
-        <v>0.4097202069527155</v>
+        <v>0.40972020695271549</v>
       </c>
       <c r="G29">
-        <v>0.4542618913365863</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.45426189133658629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1049,19 +1129,19 @@
         <v>22</v>
       </c>
       <c r="D30">
-        <v>0.420247807435792</v>
+        <v>0.42024780743579199</v>
       </c>
       <c r="E30">
-        <v>0.02697035293227031</v>
+        <v>2.6970352932270309E-2</v>
       </c>
       <c r="F30">
-        <v>0.3979549242032298</v>
+        <v>0.39795492420322981</v>
       </c>
       <c r="G30">
-        <v>0.4423609200541325</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0.44236092005413252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1072,19 +1152,19 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>0.4170151319939782</v>
+        <v>0.41701513199397822</v>
       </c>
       <c r="E31">
-        <v>0.02715397428227822</v>
+        <v>2.7153974282278219E-2</v>
       </c>
       <c r="F31">
-        <v>0.3947486066463389</v>
+        <v>0.39474860664633887</v>
       </c>
       <c r="G31">
-        <v>0.4391128513756927</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>0.43911285137569273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1095,19 +1175,19 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <v>0.4132436773118621</v>
+        <v>0.41324367731186212</v>
       </c>
       <c r="E32">
-        <v>0.02737023237091446</v>
+        <v>2.737023237091446E-2</v>
       </c>
       <c r="F32">
-        <v>0.3910092074978178</v>
+        <v>0.39100920749781781</v>
       </c>
       <c r="G32">
-        <v>0.4353221586606089</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>0.43532215866060892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1118,19 +1198,19 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>0.4105462642745784</v>
+        <v>0.41054626427457841</v>
       </c>
       <c r="E33">
-        <v>0.02752647885396494</v>
+        <v>2.752647885396494E-2</v>
       </c>
       <c r="F33">
-        <v>0.3883354212568378</v>
+        <v>0.38833542125683779</v>
       </c>
       <c r="G33">
-        <v>0.4326103008128137</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.43261030081281371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1141,19 +1221,19 @@
         <v>8</v>
       </c>
       <c r="D34">
-        <v>0.4062247246506355</v>
+        <v>0.40622472465063553</v>
       </c>
       <c r="E34">
-        <v>0.02777957520294581</v>
+        <v>2.777957520294581E-2</v>
       </c>
       <c r="F34">
-        <v>0.3840529814550173</v>
+        <v>0.38405298145501732</v>
       </c>
       <c r="G34">
-        <v>0.4282643987152466</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.42826439871524657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1164,19 +1244,19 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <v>0.4024433774796854</v>
+        <v>0.40244337747968539</v>
       </c>
       <c r="E35">
-        <v>0.02800356126652821</v>
+        <v>2.8003561266528209E-2</v>
       </c>
       <c r="F35">
-        <v>0.3803073836638139</v>
+        <v>0.38030738366381389</v>
       </c>
       <c r="G35">
-        <v>0.4244602283467254</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>0.42446022834672542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1187,19 +1267,19 @@
         <v>6</v>
       </c>
       <c r="D36">
-        <v>0.3992022227617282</v>
+        <v>0.39920222276172818</v>
       </c>
       <c r="E36">
-        <v>0.02819747395335208</v>
+        <v>2.8197473953352079E-2</v>
       </c>
       <c r="F36">
-        <v>0.3770980175812526</v>
+        <v>0.37709801758125261</v>
       </c>
       <c r="G36">
-        <v>0.421198387693522</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.42119838769352203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1210,19 +1290,19 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <v>0.3954157518141238</v>
+        <v>0.39541575181412381</v>
       </c>
       <c r="E37">
-        <v>0.02842662560526695</v>
+        <v>2.8426625605266952E-2</v>
       </c>
       <c r="F37">
-        <v>0.3733497891052439</v>
+        <v>0.37334978910524391</v>
       </c>
       <c r="G37">
-        <v>0.4173866700499467</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.41738667004994667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1233,19 +1313,19 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <v>0.3916292808665193</v>
+        <v>0.39162928086651932</v>
       </c>
       <c r="E38">
-        <v>0.02865832264504898</v>
+        <v>2.8658322645048979E-2</v>
       </c>
       <c r="F38">
-        <v>0.369603020659403</v>
+        <v>0.36960302065940298</v>
       </c>
       <c r="G38">
-        <v>0.4135735223232297</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.41357352232322969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1259,16 +1339,16 @@
         <v>0.3856626297729851</v>
       </c>
       <c r="E39">
-        <v>0.02902977207077814</v>
+        <v>2.9029772070778139E-2</v>
       </c>
       <c r="F39">
-        <v>0.3637011396387885</v>
+        <v>0.36370113963878847</v>
       </c>
       <c r="G39">
-        <v>0.4075626836624374</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.40756268366243742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1279,19 +1359,19 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>0.3824080928128755</v>
+        <v>0.38240809281287552</v>
       </c>
       <c r="E40">
-        <v>0.02923521202066519</v>
+        <v>2.9235212020665188E-2</v>
       </c>
       <c r="F40">
-        <v>0.3604834855429486</v>
+        <v>0.36048348554294862</v>
       </c>
       <c r="G40">
-        <v>0.404282523595102</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.40428252359510197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1302,19 +1382,19 @@
         <v>8</v>
       </c>
       <c r="D41">
-        <v>0.3780687101993961</v>
+        <v>0.37806871019939609</v>
       </c>
       <c r="E41">
-        <v>0.02951233869310303</v>
+        <v>2.9512338693103029E-2</v>
       </c>
       <c r="F41">
-        <v>0.3561949962168801</v>
+        <v>0.35619499621688011</v>
       </c>
       <c r="G41">
         <v>0.3999072970623857</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1325,19 +1405,19 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <v>0.374266295010609</v>
+        <v>0.37426629501060898</v>
       </c>
       <c r="E42">
-        <v>0.02975861784106244</v>
+        <v>2.975861784106244E-2</v>
       </c>
       <c r="F42">
-        <v>0.3524385393706334</v>
+        <v>0.35243853937063341</v>
       </c>
       <c r="G42">
-        <v>0.3960721444666713</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.39607214446667133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1348,19 +1428,19 @@
         <v>6</v>
       </c>
       <c r="D43">
-        <v>0.3709975937441408</v>
+        <v>0.37099759374414082</v>
       </c>
       <c r="E43">
-        <v>0.02997332216026611</v>
+        <v>2.997332216026611E-2</v>
       </c>
       <c r="F43">
-        <v>0.3492101148768199</v>
+        <v>0.34921011487681991</v>
       </c>
       <c r="G43">
-        <v>0.3927745574970948</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.39277455749709478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1371,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>0.3666393253888499</v>
+        <v>0.36663932538884991</v>
       </c>
       <c r="E44">
-        <v>0.03026310230559826</v>
+        <v>3.0263102305598259E-2</v>
       </c>
       <c r="F44">
-        <v>0.3449073243990837</v>
+        <v>0.34490732439908373</v>
       </c>
       <c r="G44">
-        <v>0.3883760388040219</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.38837603880402188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1394,10 +1474,10 @@
         <v>8</v>
       </c>
       <c r="D45">
-        <v>0.362281057033559</v>
+        <v>0.36228105703355901</v>
       </c>
       <c r="E45">
-        <v>0.03055700670247707</v>
+        <v>3.0557006702477071E-2</v>
       </c>
       <c r="F45">
         <v>0.3406065753692139</v>
@@ -1406,7 +1486,7 @@
         <v>0.3839755239802376</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1420,16 +1500,16 @@
         <v>0.3573780051338567</v>
       </c>
       <c r="E46">
-        <v>0.0308927419310981</v>
+        <v>3.0892741931098099E-2</v>
       </c>
       <c r="F46">
-        <v>0.335770690413449</v>
+        <v>0.33577069041344898</v>
       </c>
       <c r="G46">
-        <v>0.3790225416185581</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0.37902254161855808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1440,19 +1520,19 @@
         <v>13</v>
       </c>
       <c r="D47">
-        <v>0.350295819056509</v>
+        <v>0.35029581905650897</v>
       </c>
       <c r="E47">
-        <v>0.031387596490695</v>
+        <v>3.1387596490695002E-2</v>
       </c>
       <c r="F47">
         <v>0.3287901591197534</v>
       </c>
       <c r="G47">
-        <v>0.3718637006785077</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0.37186370067850771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1463,19 +1543,19 @@
         <v>22</v>
       </c>
       <c r="D48">
-        <v>0.3383105810794589</v>
+        <v>0.33831058107945888</v>
       </c>
       <c r="E48">
-        <v>0.03225332879333594</v>
+        <v>3.2253328793335943E-2</v>
       </c>
       <c r="F48">
-        <v>0.3169896118277989</v>
+        <v>0.31698961182779889</v>
       </c>
       <c r="G48">
-        <v>0.3597363602132536</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0.35973636021325361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1489,16 +1569,16 @@
         <v>0.3317626343488887</v>
       </c>
       <c r="E49">
-        <v>0.03274310361816431</v>
+        <v>3.2743103618164307E-2</v>
       </c>
       <c r="F49">
-        <v>0.310548895449922</v>
+        <v>0.31054889544992198</v>
       </c>
       <c r="G49">
-        <v>0.3531046082260312</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0.35310460822603118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1509,19 +1589,19 @@
         <v>14</v>
       </c>
       <c r="D50">
-        <v>0.3241233631632235</v>
+        <v>0.32412336316322349</v>
       </c>
       <c r="E50">
-        <v>0.03332980161876552</v>
+        <v>3.3329801618765517E-2</v>
       </c>
       <c r="F50">
-        <v>0.3030409586364649</v>
+        <v>0.30304095863646491</v>
       </c>
       <c r="G50">
-        <v>0.3453614725790516</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0.34536147257905159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1532,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <v>0.3197580653428433</v>
+        <v>0.31975806534284329</v>
       </c>
       <c r="E51">
-        <v>0.03367281743606862</v>
+        <v>3.3672817436068619E-2</v>
       </c>
       <c r="F51">
-        <v>0.2987537630119728</v>
+        <v>0.29875376301197282</v>
       </c>
       <c r="G51">
-        <v>0.3409338386314806</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0.34093383863148058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1555,19 +1635,19 @@
         <v>12</v>
       </c>
       <c r="D52">
-        <v>0.3132101186122732</v>
+        <v>0.31321011861227321</v>
       </c>
       <c r="E52">
-        <v>0.03419845422223387</v>
+        <v>3.4198454222233873E-2</v>
       </c>
       <c r="F52">
-        <v>0.2923271931301445</v>
+        <v>0.29232719313014449</v>
       </c>
       <c r="G52">
         <v>0.3342882596759994</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1578,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="D53">
-        <v>0.3088448207918931</v>
+        <v>0.30884482079189313</v>
       </c>
       <c r="E53">
-        <v>0.03455659770205106</v>
+        <v>3.4556597702051058E-2</v>
       </c>
       <c r="F53">
-        <v>0.288045663286467</v>
+        <v>0.28804566328646702</v>
       </c>
       <c r="G53">
         <v>0.3298550881776377</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1601,19 +1681,19 @@
         <v>11</v>
       </c>
       <c r="D54">
-        <v>0.3028425362888704</v>
+        <v>0.30284253628887042</v>
       </c>
       <c r="E54">
-        <v>0.03505960345249762</v>
+        <v>3.5059603452497617E-2</v>
       </c>
       <c r="F54">
-        <v>0.282162335162597</v>
+        <v>0.28216233516259698</v>
       </c>
       <c r="G54">
-        <v>0.3237557876244073</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0.32375578762440732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1624,19 +1704,19 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <v>0.3001142251511328</v>
+        <v>0.30011422515113279</v>
       </c>
       <c r="E55">
-        <v>0.03529243276718678</v>
+        <v>3.5292432767186778E-2</v>
       </c>
       <c r="F55">
-        <v>0.279489556595013</v>
+        <v>0.27948955659501301</v>
       </c>
       <c r="G55">
-        <v>0.3209819500118645</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0.32098195001186453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1647,19 +1727,19 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>0.2968402517858478</v>
+        <v>0.29684025178584778</v>
       </c>
       <c r="E56">
-        <v>0.03557540283063888</v>
+        <v>3.5575402830638883E-2</v>
       </c>
       <c r="F56">
-        <v>0.2762834409370497</v>
+        <v>0.27628344093704971</v>
       </c>
       <c r="G56">
-        <v>0.3176521539993657</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0.31765215399936569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1670,19 +1750,19 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.2962945895583002</v>
+        <v>0.29629458955830018</v>
       </c>
       <c r="E57">
-        <v>0.03562295072836603</v>
+        <v>3.5622950728366028E-2</v>
       </c>
       <c r="F57">
-        <v>0.275749218345439</v>
+        <v>0.27574921834543897</v>
       </c>
       <c r="G57">
-        <v>0.3170970609424514</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>0.31709706094245138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1696,16 +1776,16 @@
         <v>0.2957489273307527</v>
       </c>
       <c r="E58">
-        <v>0.03567061034842386</v>
+        <v>3.5670610348423858E-2</v>
       </c>
       <c r="F58">
-        <v>0.2752150330512073</v>
+        <v>0.27521503305120731</v>
       </c>
       <c r="G58">
-        <v>0.3165419314387845</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0.31654193143878451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1716,19 +1796,19 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>0.2924749539654676</v>
+        <v>0.29247495396546758</v>
       </c>
       <c r="E59">
-        <v>0.03595894373081093</v>
+        <v>3.5958943730810933E-2</v>
       </c>
       <c r="F59">
-        <v>0.272010707729157</v>
+        <v>0.27201070772915698</v>
       </c>
       <c r="G59">
         <v>0.3132103859224758</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1739,19 +1819,19 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>0.2913836295103726</v>
+        <v>0.29138362951037261</v>
       </c>
       <c r="E60">
-        <v>0.03605597271568948</v>
+        <v>3.6055972715689479E-2</v>
       </c>
       <c r="F60">
-        <v>0.2709429002759184</v>
+        <v>0.27094290027591839</v>
       </c>
       <c r="G60">
-        <v>0.3120995766380977</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>0.31209957663809768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1762,19 +1842,19 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.2908379672828251</v>
+        <v>0.29083796728282513</v>
       </c>
       <c r="E61">
-        <v>0.03610466175335959</v>
+        <v>3.6104661753359593E-2</v>
       </c>
       <c r="F61">
-        <v>0.2704090532487216</v>
+        <v>0.27040905324872161</v>
       </c>
       <c r="G61">
         <v>0.3115441165927218</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1785,19 +1865,19 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>0.288655318372635</v>
+        <v>0.28865531837263497</v>
       </c>
       <c r="E62">
-        <v>0.0363005944949466</v>
+        <v>3.6300594494946603E-2</v>
       </c>
       <c r="F62">
-        <v>0.2682740445314518</v>
+        <v>0.26827404453145182</v>
       </c>
       <c r="G62">
-        <v>0.3093219056991288</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0.30932190569912882</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1808,19 +1888,19 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>0.286472669462445</v>
+        <v>0.28647266946244498</v>
       </c>
       <c r="E63">
-        <v>0.03649843691456507</v>
+        <v>3.6498436914565072E-2</v>
       </c>
       <c r="F63">
-        <v>0.2661396457555515</v>
+        <v>0.26613964575555149</v>
       </c>
       <c r="G63">
-        <v>0.3070990988305942</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>0.30709909883059422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1831,19 +1911,19 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>0.2848356827798025</v>
+        <v>0.28483568277980248</v>
       </c>
       <c r="E64">
-        <v>0.03664809414833353</v>
+        <v>3.6648094148333532E-2</v>
       </c>
       <c r="F64">
         <v>0.2645392493252437</v>
       </c>
       <c r="G64">
-        <v>0.3054316002579887</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>0.30543160025798871</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1854,19 +1934,19 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>0.2826530338696124</v>
+        <v>0.28265303386961238</v>
       </c>
       <c r="E65">
-        <v>0.0368493680128508</v>
+        <v>3.6849368012850797E-2</v>
       </c>
       <c r="F65">
-        <v>0.2624059275243371</v>
+        <v>0.26240592752433711</v>
       </c>
       <c r="G65">
-        <v>0.3032077411177009</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>0.30320774111770088</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1877,19 +1957,19 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>0.2799247227318749</v>
+        <v>0.27992472273187491</v>
       </c>
       <c r="E66">
-        <v>0.03710379672265366</v>
+        <v>3.7103796722653661E-2</v>
       </c>
       <c r="F66">
-        <v>0.2597401491056407</v>
+        <v>0.25974014910564069</v>
       </c>
       <c r="G66">
-        <v>0.3004270634420225</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>0.30042706344202252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1900,19 +1980,19 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>0.2788333982767798</v>
+        <v>0.27883339827677978</v>
       </c>
       <c r="E67">
-        <v>0.03720646657331486</v>
+        <v>3.7206466573314861E-2</v>
       </c>
       <c r="F67">
         <v>0.2586741112853998</v>
       </c>
       <c r="G67">
-        <v>0.2993145251189757</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>0.29931452511897572</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1923,19 +2003,19 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>0.2766507493665898</v>
+        <v>0.27665074936658979</v>
       </c>
       <c r="E68">
-        <v>0.03741337434949946</v>
+        <v>3.7413374349499463E-2</v>
       </c>
       <c r="F68">
-        <v>0.2565425075388927</v>
+        <v>0.25654250753889268</v>
       </c>
       <c r="G68">
-        <v>0.2970889874514844</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0.29708898745148438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1946,19 +2026,19 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>0.2755594249114948</v>
+        <v>0.27555942491149482</v>
       </c>
       <c r="E69">
-        <v>0.03751762268916518</v>
+        <v>3.7517622689165177E-2</v>
       </c>
       <c r="F69">
-        <v>0.2554769427073421</v>
+        <v>0.25547694270734211</v>
       </c>
       <c r="G69">
-        <v>0.2959759870428204</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0.29597598704282041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1969,19 +2049,19 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.2750137626839472</v>
+        <v>0.27501376268394723</v>
       </c>
       <c r="E70">
-        <v>0.03756994778505243</v>
+        <v>3.7569947785052432E-2</v>
       </c>
       <c r="F70">
-        <v>0.2549442197945224</v>
+        <v>0.25494421979452242</v>
       </c>
       <c r="G70">
-        <v>0.2954194287090003</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>0.29541942870900029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1992,19 +2072,19 @@
         <v>6</v>
       </c>
       <c r="D71">
-        <v>0.2717397893186622</v>
+        <v>0.27173978931866222</v>
       </c>
       <c r="E71">
-        <v>0.03788675389840937</v>
+        <v>3.788675389840937E-2</v>
       </c>
       <c r="F71">
-        <v>0.2517487198056287</v>
+        <v>0.25174871980562868</v>
       </c>
       <c r="G71">
         <v>0.2920792605711478</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2015,19 +2095,19 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>0.2706484648635671</v>
+        <v>0.27064846486356708</v>
       </c>
       <c r="E72">
-        <v>0.03799346028861606</v>
+        <v>3.7993460288616061E-2</v>
       </c>
       <c r="F72">
-        <v>0.2506838739063327</v>
+        <v>0.25068387390633268</v>
       </c>
       <c r="G72">
-        <v>0.290965557849122</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0.29096555784912198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2038,19 +2118,19 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>0.2679201537258296</v>
+        <v>0.26792015372582961</v>
       </c>
       <c r="E73">
-        <v>0.03826269554337473</v>
+        <v>3.8262695543374733E-2</v>
       </c>
       <c r="F73">
-        <v>0.2480224663746809</v>
+        <v>0.24802246637468089</v>
       </c>
       <c r="G73">
-        <v>0.2881806102170125</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0.28818061021701252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2061,19 +2141,19 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>0.2657375048156395</v>
+        <v>0.26573750481563951</v>
       </c>
       <c r="E74">
-        <v>0.03848067154811175</v>
+        <v>3.8480671548111751E-2</v>
       </c>
       <c r="F74">
-        <v>0.2458940727174052</v>
+        <v>0.24589407271740521</v>
       </c>
       <c r="G74">
-        <v>0.2859519367409759</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>0.28595193674097591</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2084,19 +2164,19 @@
         <v>7</v>
       </c>
       <c r="D75">
-        <v>0.2619178692228069</v>
+        <v>0.26191786922280691</v>
       </c>
       <c r="E75">
-        <v>0.03886781863930512</v>
+        <v>3.8867818639305121E-2</v>
       </c>
       <c r="F75">
-        <v>0.2421709660587446</v>
+        <v>0.24217096605874461</v>
       </c>
       <c r="G75">
-        <v>0.2820502127208938</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>0.28205021272089381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2107,19 +2187,19 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <v>0.2586438958575218</v>
+        <v>0.25864389585752179</v>
       </c>
       <c r="E76">
-        <v>0.03920559441960793</v>
+        <v>3.9205594419607928E-2</v>
       </c>
       <c r="F76">
-        <v>0.2389813521089272</v>
+        <v>0.23898135210892721</v>
       </c>
       <c r="G76">
-        <v>0.2787042953005182</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>0.27870429530051821</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2133,16 +2213,16 @@
         <v>0.2559098166201273</v>
       </c>
       <c r="E77">
-        <v>0.03949260520254836</v>
+        <v>3.949260520254836E-2</v>
       </c>
       <c r="F77">
-        <v>0.2363185848631671</v>
+        <v>0.23631858486316709</v>
       </c>
       <c r="G77">
-        <v>0.275909311664324</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>0.27590931166432398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2156,16 +2236,16 @@
         <v>0.2537225532302117</v>
       </c>
       <c r="E78">
-        <v>0.03972513238147</v>
+        <v>3.9725132381469998E-2</v>
       </c>
       <c r="F78">
-        <v>0.2341891419947595</v>
+        <v>0.23418914199475949</v>
       </c>
       <c r="G78">
         <v>0.2736725722007497</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2176,19 +2256,19 @@
         <v>7</v>
       </c>
       <c r="D79">
-        <v>0.2498948422978594</v>
+        <v>0.24989484229785941</v>
       </c>
       <c r="E79">
-        <v>0.04013847949751009</v>
+        <v>4.0138479497510093E-2</v>
       </c>
       <c r="F79">
-        <v>0.2304642839477075</v>
+        <v>0.23046428394770749</v>
       </c>
       <c r="G79">
-        <v>0.269756650981445</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>0.26975665098144502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2199,19 +2279,19 @@
         <v>9</v>
       </c>
       <c r="D80">
-        <v>0.2449627072525069</v>
+        <v>0.24496270725250691</v>
       </c>
       <c r="E80">
-        <v>0.04068478272715822</v>
+        <v>4.0684782727158218E-2</v>
       </c>
       <c r="F80">
         <v>0.225667294617488</v>
       </c>
       <c r="G80">
-        <v>0.2647083399567373</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>0.26470833995673732</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2225,7 +2305,7 @@
         <v>0.2427706472323502</v>
       </c>
       <c r="E81">
-        <v>0.04093227850177426</v>
+        <v>4.0932278501774257E-2</v>
       </c>
       <c r="F81">
         <v>0.2235364676825139</v>
@@ -2234,7 +2314,7 @@
         <v>0.2624635063747357</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2245,19 +2325,19 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>0.2405785872121936</v>
+        <v>0.24057858721219361</v>
       </c>
       <c r="E82">
-        <v>0.04118275620025826</v>
+        <v>4.1182756200258262E-2</v>
       </c>
       <c r="F82">
-        <v>0.221406368655848</v>
+        <v>0.22140636865584801</v>
       </c>
       <c r="G82">
-        <v>0.2602179626978751</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>0.26021796269787512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2271,16 +2351,16 @@
         <v>0.2400305722071544</v>
       </c>
       <c r="E83">
-        <v>0.04124584952528845</v>
+        <v>4.1245849525288453E-2</v>
       </c>
       <c r="F83">
-        <v>0.2208739583948383</v>
+        <v>0.22087395839483831</v>
       </c>
       <c r="G83">
-        <v>0.2596564650882708</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>0.25965646508827078</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2294,16 +2374,16 @@
         <v>0.2367349579434406</v>
       </c>
       <c r="E84">
-        <v>0.04163023178485948</v>
+        <v>4.163023178485948E-2</v>
       </c>
       <c r="F84">
         <v>0.2176727663366067</v>
       </c>
       <c r="G84">
-        <v>0.2562792347162576</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>0.25627923471625758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2314,19 +2394,19 @@
         <v>9</v>
       </c>
       <c r="D85">
-        <v>0.23179153654787</v>
+        <v>0.23179153654786999</v>
       </c>
       <c r="E85">
-        <v>0.04222036037337239</v>
+        <v>4.2220360373372387E-2</v>
       </c>
       <c r="F85">
-        <v>0.2128741633150523</v>
+        <v>0.21287416331505229</v>
       </c>
       <c r="G85">
-        <v>0.2512102837071388</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>0.25121028370713883</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2337,19 +2417,19 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>0.2284959222841562</v>
+        <v>0.22849592228415619</v>
       </c>
       <c r="E86">
-        <v>0.04262319482931905</v>
+        <v>4.2623194829319047E-2</v>
       </c>
       <c r="F86">
         <v>0.2096772531112871</v>
       </c>
       <c r="G86">
-        <v>0.2478288786488358</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0.24782887864883579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2360,19 +2440,19 @@
         <v>11</v>
       </c>
       <c r="D87">
-        <v>0.2224539628006809</v>
+        <v>0.22245396280068089</v>
       </c>
       <c r="E87">
-        <v>0.04338232803897311</v>
+        <v>4.3382328038973107E-2</v>
       </c>
       <c r="F87">
-        <v>0.2038208308821075</v>
+        <v>0.20382083088210751</v>
       </c>
       <c r="G87">
-        <v>0.2416251713898467</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>0.24162517138984671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2383,19 +2463,19 @@
         <v>10</v>
       </c>
       <c r="D88">
-        <v>0.2169612723611579</v>
+        <v>0.21696127236115789</v>
       </c>
       <c r="E88">
-        <v>0.04409689505205769</v>
+        <v>4.4096895052057689E-2</v>
       </c>
       <c r="F88">
-        <v>0.1985020711040084</v>
+        <v>0.19850207110400839</v>
       </c>
       <c r="G88">
-        <v>0.2359803098591994</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>0.23598030985919941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2409,16 +2489,16 @@
         <v>0.2114685819216349</v>
       </c>
       <c r="E89">
-        <v>0.04483629312303297</v>
+        <v>4.4836293123032972E-2</v>
       </c>
       <c r="F89">
-        <v>0.1931884575142007</v>
+        <v>0.19318845751420069</v>
       </c>
       <c r="G89">
-        <v>0.2303304326271192</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>0.23033043262711919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2429,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="D90">
-        <v>0.2070744295700165</v>
+        <v>0.20707442957001651</v>
       </c>
       <c r="E90">
-        <v>0.04544678731781973</v>
+        <v>4.5446787317819731E-2</v>
       </c>
       <c r="F90">
-        <v>0.1889413663933285</v>
+        <v>0.18894136639332851</v>
       </c>
       <c r="G90">
-        <v>0.2258068278647095</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>0.22580682786470949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2452,19 +2532,19 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>0.2048773533942073</v>
+        <v>0.20487735339420729</v>
       </c>
       <c r="E91">
-        <v>0.04575866837075812</v>
+        <v>4.5758668370758121E-2</v>
       </c>
       <c r="F91">
         <v>0.1868191135268055</v>
       </c>
       <c r="G91">
-        <v>0.2235437658330308</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>0.22354376583303079</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2478,16 +2558,16 @@
         <v>0.2026802772183981</v>
       </c>
       <c r="E92">
-        <v>0.04607513086126765</v>
+        <v>4.6075130861267653E-2</v>
       </c>
       <c r="F92">
-        <v>0.184697735686926</v>
+        <v>0.18469773568692599</v>
       </c>
       <c r="G92">
-        <v>0.2212798512037094</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0.22127985120370941</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2501,16 +2581,16 @@
         <v>0.1999339319986366</v>
       </c>
       <c r="E93">
-        <v>0.04647734212349802</v>
+        <v>4.6477342123498022E-2</v>
       </c>
       <c r="F93">
         <v>0.1820472595675178</v>
       </c>
       <c r="G93">
-        <v>0.2184487437532925</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0.21844874375329251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2521,19 +2601,19 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>0.1960890486909705</v>
+        <v>0.19608904869097049</v>
       </c>
       <c r="E94">
-        <v>0.04705327865081463</v>
+        <v>4.7053278650814628E-2</v>
       </c>
       <c r="F94">
-        <v>0.1783389564972754</v>
+        <v>0.17833895649727541</v>
       </c>
       <c r="G94">
-        <v>0.2144828907269785</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>0.21448289072697849</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2547,16 +2627,16 @@
         <v>0.1944412415591136</v>
       </c>
       <c r="E95">
-        <v>0.04730485536046044</v>
+        <v>4.7304855360460439E-2</v>
       </c>
       <c r="F95">
-        <v>0.1767505407714275</v>
+        <v>0.17675054077142749</v>
       </c>
       <c r="G95">
         <v>0.2127824045569047</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2567,19 +2647,19 @@
         <v>11</v>
       </c>
       <c r="D96">
-        <v>0.1883992820756384</v>
+        <v>0.18839928207563841</v>
       </c>
       <c r="E96">
-        <v>0.04825290124599419</v>
+        <v>4.8252901245994191E-2</v>
       </c>
       <c r="F96">
         <v>0.17093084636903</v>
       </c>
       <c r="G96">
-        <v>0.206542908677056</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>0.20654290867705599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2590,19 +2670,19 @@
         <v>4</v>
       </c>
       <c r="D97">
-        <v>0.1862022058998292</v>
+        <v>0.18620220589982919</v>
       </c>
       <c r="E97">
-        <v>0.04860805582397394</v>
+        <v>4.8608055823973942E-2</v>
       </c>
       <c r="F97">
-        <v>0.1688163797562436</v>
+        <v>0.16881637975624361</v>
       </c>
       <c r="G97">
-        <v>0.2042722616924683</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0.20427226169246829</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2616,16 +2696,16 @@
         <v>0.1812587845042585</v>
       </c>
       <c r="E98">
-        <v>0.04942867198210939</v>
+        <v>4.9428671982109387E-2</v>
       </c>
       <c r="F98">
-        <v>0.164062405245533</v>
+        <v>0.16406240524553301</v>
       </c>
       <c r="G98">
-        <v>0.1991598241777369</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>0.19915982417773689</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2639,16 +2719,16 @@
         <v>0.178512439284497</v>
       </c>
       <c r="E99">
-        <v>0.04989803263190858</v>
+        <v>4.9898032631908583E-2</v>
       </c>
       <c r="F99">
         <v>0.1614234914011729</v>
       </c>
       <c r="G99">
-        <v>0.1963174553625507</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0.19631745536255071</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2662,16 +2742,16 @@
         <v>0.1664285203175464</v>
       </c>
       <c r="E100">
-        <v>0.05208858432147332</v>
+        <v>5.208858432147332E-2</v>
       </c>
       <c r="F100">
-        <v>0.1498316028868328</v>
+        <v>0.14983160288683281</v>
       </c>
       <c r="G100">
-        <v>0.1837922122554128</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0.18379221225541281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2682,19 +2762,19 @@
         <v>3</v>
       </c>
       <c r="D101">
-        <v>0.1647807131856895</v>
+        <v>0.16478071318568949</v>
       </c>
       <c r="E101">
-        <v>0.05240442650144422</v>
+        <v>5.2404426501444223E-2</v>
       </c>
       <c r="F101">
-        <v>0.1482534235073183</v>
+        <v>0.14825342350731829</v>
       </c>
       <c r="G101">
         <v>0.1820817594306107</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2708,7 +2788,7 @@
         <v>0.1598372917901188</v>
       </c>
       <c r="E102">
-        <v>0.05337899118989066</v>
+        <v>5.3378991189890659E-2</v>
       </c>
       <c r="F102">
         <v>0.1435226944667968</v>
@@ -2717,7 +2797,7 @@
         <v>0.1769466943167407</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2728,19 +2808,19 @@
         <v>14</v>
       </c>
       <c r="D103">
-        <v>0.1521475251747866</v>
+        <v>0.15214752517478661</v>
       </c>
       <c r="E103">
-        <v>0.05498180505277209</v>
+        <v>5.4981805052772087E-2</v>
       </c>
       <c r="F103">
-        <v>0.1361755477529494</v>
+        <v>0.13617554775294941</v>
       </c>
       <c r="G103">
         <v>0.168947368745204</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2754,16 +2834,16 @@
         <v>0.1439084895155022</v>
       </c>
       <c r="E104">
-        <v>0.0568303130093589</v>
+        <v>5.6830313009358903E-2</v>
       </c>
       <c r="F104">
-        <v>0.1283203812097574</v>
+        <v>0.12832038120975739</v>
       </c>
       <c r="G104">
-        <v>0.1603603454721279</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>0.16036034547212791</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2777,16 +2857,16 @@
         <v>0.1378665300320269</v>
       </c>
       <c r="E105">
-        <v>0.05828339668063159</v>
+        <v>5.8283396680631587E-2</v>
       </c>
       <c r="F105">
-        <v>0.1225716381282971</v>
+        <v>0.12257163812829711</v>
       </c>
       <c r="G105">
-        <v>0.1540518068514208</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>0.15405180685142081</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2797,19 +2877,19 @@
         <v>10</v>
       </c>
       <c r="D106">
-        <v>0.1323518688307458</v>
+        <v>0.13235186883074579</v>
       </c>
       <c r="E106">
-        <v>0.05969607185819285</v>
+        <v>5.9696071858192853E-2</v>
       </c>
       <c r="F106">
-        <v>0.1173324098986177</v>
+        <v>0.11733240989861771</v>
       </c>
       <c r="G106">
-        <v>0.1482864519228123</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>0.14828645192281231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2820,10 +2900,10 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <v>0.1295945382301053</v>
+        <v>0.12959453823010531</v>
       </c>
       <c r="E107">
-        <v>0.06043404237321898</v>
+        <v>6.0434042373218977E-2</v>
       </c>
       <c r="F107">
         <v>0.1147162482473492</v>
@@ -2832,7 +2912,7 @@
         <v>0.1454004211648359</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2846,7 +2926,7 @@
         <v>0.1224254786684399</v>
       </c>
       <c r="E108">
-        <v>0.06246165890477423</v>
+        <v>6.2461658904774231E-2</v>
       </c>
       <c r="F108">
         <v>0.1079255442905305</v>
@@ -2855,7 +2935,7 @@
         <v>0.1378857525396126</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2866,10 +2946,10 @@
         <v>12</v>
       </c>
       <c r="D109">
-        <v>0.1158078852269026</v>
+        <v>0.11580788522690259</v>
       </c>
       <c r="E109">
-        <v>0.06448921685473176</v>
+        <v>6.448921685473176E-2</v>
       </c>
       <c r="F109">
         <v>0.1016725434694844</v>
@@ -2878,7 +2958,7 @@
         <v>0.1309342423722607</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2892,16 +2972,16 @@
         <v>0.1097417579054934</v>
       </c>
       <c r="E110">
-        <v>0.06649872146720236</v>
+        <v>6.6498721467202357E-2</v>
       </c>
       <c r="F110">
-        <v>0.09595451021241844</v>
+        <v>9.5954510212418437E-2</v>
       </c>
       <c r="G110">
         <v>0.1245485510023371</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2915,16 +2995,16 @@
         <v>0.1031241644639561</v>
       </c>
       <c r="E111">
-        <v>0.06888067879688438</v>
+        <v>6.8880678796884379E-2</v>
       </c>
       <c r="F111">
-        <v>0.08973295787202151</v>
+        <v>8.9732957872021513E-2</v>
       </c>
       <c r="G111">
         <v>0.1175665278737396</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2935,19 +3015,19 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>0.09981536774318746</v>
+        <v>9.9815367743187458E-2</v>
       </c>
       <c r="E112">
-        <v>0.07015565698562658</v>
+        <v>7.0155656985626577E-2</v>
       </c>
       <c r="F112">
-        <v>0.08662898597206112</v>
+        <v>8.6628985972061118E-2</v>
       </c>
       <c r="G112">
         <v>0.1140689177746318</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2958,19 +3038,19 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <v>0.0948521726620345</v>
+        <v>9.4852172662034495E-2</v>
       </c>
       <c r="E113">
-        <v>0.07218661799117583</v>
+        <v>7.218661799117583E-2</v>
       </c>
       <c r="F113">
-        <v>0.08198209320986455</v>
+        <v>8.1982093209864548E-2</v>
       </c>
       <c r="G113">
-        <v>0.1088137144917116</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>0.10881371449171159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2981,19 +3061,19 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>0.09374924042177828</v>
+        <v>9.3749240421778277E-2</v>
       </c>
       <c r="E114">
-        <v>0.07265884164923307</v>
+        <v>7.2658841649233072E-2</v>
       </c>
       <c r="F114">
-        <v>0.08095099096915154</v>
+        <v>8.0950990969151537E-2</v>
       </c>
       <c r="G114">
         <v>0.1076443983342726</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3004,19 +3084,19 @@
         <v>10</v>
       </c>
       <c r="D115">
-        <v>0.0882345792204972</v>
+        <v>8.8234579220497197E-2</v>
       </c>
       <c r="E115">
-        <v>0.07514621965629313</v>
+        <v>7.5146219656293131E-2</v>
       </c>
       <c r="F115">
-        <v>0.07580435262866422</v>
+        <v>7.5804352628664223E-2</v>
       </c>
       <c r="G115">
         <v>0.101789220045504</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3027,19 +3107,19 @@
         <v>7</v>
       </c>
       <c r="D116">
-        <v>0.08437431637960045</v>
+        <v>8.4374316379600453E-2</v>
       </c>
       <c r="E116">
-        <v>0.07702533376136814</v>
+        <v>7.7025333761368137E-2</v>
       </c>
       <c r="F116">
-        <v>0.07221097196889793</v>
+        <v>7.2210971968897933E-2</v>
       </c>
       <c r="G116">
-        <v>0.09768161906902237</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>9.7681619069022368E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3050,19 +3130,19 @@
         <v>14</v>
       </c>
       <c r="D117">
-        <v>0.07665379069780695</v>
+        <v>7.6653790697806951E-2</v>
       </c>
       <c r="E117">
-        <v>0.08118619915323295</v>
+        <v>8.1186199153232955E-2</v>
       </c>
       <c r="F117">
-        <v>0.06504924853118271</v>
+        <v>6.5049248531182713E-2</v>
       </c>
       <c r="G117">
-        <v>0.08944217436244734</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>8.9442174362447335E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3073,19 +3153,19 @@
         <v>12</v>
       </c>
       <c r="D118">
-        <v>0.07003619725626965</v>
+        <v>7.0036197256269653E-2</v>
       </c>
       <c r="E118">
-        <v>0.08526998344472311</v>
+        <v>8.5269983444723113E-2</v>
       </c>
       <c r="F118">
-        <v>0.05894009619027372</v>
+        <v>5.8940096190273718E-2</v>
       </c>
       <c r="G118">
-        <v>0.08235127716430869</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>8.2351277164308692E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3096,19 +3176,19 @@
         <v>12</v>
       </c>
       <c r="D119">
-        <v>0.06341860381473235</v>
+        <v>6.3418603814732355E-2</v>
       </c>
       <c r="E119">
-        <v>0.08995891563677777</v>
+        <v>8.995891563677777E-2</v>
       </c>
       <c r="F119">
-        <v>0.05286191363235899</v>
+        <v>5.2861913632358988E-2</v>
       </c>
       <c r="G119">
-        <v>0.07523043170889529</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>7.523043170889529E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3119,19 +3199,19 @@
         <v>3</v>
       </c>
       <c r="D120">
-        <v>0.06176420545434803</v>
+        <v>6.1764205454348027E-2</v>
       </c>
       <c r="E120">
-        <v>0.09124431904071226</v>
+        <v>9.1244319040712257E-2</v>
       </c>
       <c r="F120">
-        <v>0.05134771474454055</v>
+        <v>5.134771474454055E-2</v>
       </c>
       <c r="G120">
-        <v>0.07344505281616019</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>7.3445052816160192E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3142,19 +3222,19 @@
         <v>13</v>
       </c>
       <c r="D121">
-        <v>0.05459514589268263</v>
+        <v>5.4595145892682627E-2</v>
       </c>
       <c r="E121">
-        <v>0.09745750063305521</v>
+        <v>9.7457500633055208E-2</v>
       </c>
       <c r="F121">
-        <v>0.0448138984257797</v>
+        <v>4.4813898425779701E-2</v>
       </c>
       <c r="G121">
-        <v>0.06568164530808626</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>6.5681645308086262E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3165,19 +3245,19 @@
         <v>5</v>
       </c>
       <c r="D122">
-        <v>0.05183781529204209</v>
+        <v>5.1837815292042087E-2</v>
       </c>
       <c r="E122">
         <v>0.1001761059383538</v>
       </c>
       <c r="F122">
-        <v>0.04231405431595186</v>
+        <v>4.2314054315951859E-2</v>
       </c>
       <c r="G122">
-        <v>0.06268301375644644</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>6.2683013756446443E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3188,19 +3268,19 @@
         <v>4</v>
       </c>
       <c r="D123">
-        <v>0.04963195081152966</v>
+        <v>4.9631950811529657E-2</v>
       </c>
       <c r="E123">
         <v>0.1025088554210951</v>
       </c>
       <c r="F123">
-        <v>0.04032001470869733</v>
+        <v>4.0320014708697331E-2</v>
       </c>
       <c r="G123">
-        <v>0.06027847873520743</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>6.0278478735207433E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3211,19 +3291,19 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0.04908048469140156</v>
+        <v>4.9080484691401562E-2</v>
       </c>
       <c r="E124">
-        <v>0.1031159996548141</v>
+        <v>0.10311599965481411</v>
       </c>
       <c r="F124">
-        <v>0.03982235690649975</v>
+        <v>3.9822356906499753E-2</v>
       </c>
       <c r="G124">
-        <v>0.05967652319820597</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>5.9676523198205968E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -3234,19 +3314,19 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>0.04852901857127345</v>
+        <v>4.8529018571273452E-2</v>
       </c>
       <c r="E125">
         <v>0.1037332670471157</v>
       </c>
       <c r="F125">
-        <v>0.03932505068007675</v>
+        <v>3.9325050680076752E-2</v>
       </c>
       <c r="G125">
-        <v>0.05907422866026194</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>5.9074228660261942E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -3257,19 +3337,19 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>0.04742608633101724</v>
+        <v>4.7426086331017241E-2</v>
       </c>
       <c r="E126">
-        <v>0.1049993395473326</v>
+        <v>0.10499933954733261</v>
       </c>
       <c r="F126">
-        <v>0.0383315156369867</v>
+        <v>3.8331515636986703E-2</v>
       </c>
       <c r="G126">
-        <v>0.05786860085063398</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>5.7868600850633979E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>128</v>
       </c>
@@ -3280,19 +3360,19 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>0.0441172896102486</v>
+        <v>4.4117289610248599E-2</v>
       </c>
       <c r="E127">
         <v>0.1090731604412005</v>
       </c>
       <c r="F127">
-        <v>0.03535996850938231</v>
+        <v>3.5359968509382313E-2</v>
       </c>
       <c r="G127">
-        <v>0.05424298738397947</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>5.4242987383979473E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>129</v>
       </c>
@@ -3303,19 +3383,19 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0.0441172896102486</v>
+        <v>4.4117289610248599E-2</v>
       </c>
       <c r="E128">
         <v>0.1090731604412005</v>
       </c>
       <c r="F128">
-        <v>0.03535996850938231</v>
+        <v>3.5359968509382313E-2</v>
       </c>
       <c r="G128">
-        <v>0.05424298738397947</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>5.4242987383979473E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>130</v>
       </c>
@@ -3326,19 +3406,19 @@
         <v>10</v>
       </c>
       <c r="D129">
-        <v>0.03853282257097662</v>
+        <v>3.8532822570976621E-2</v>
       </c>
       <c r="E129">
         <v>0.1171813982836824</v>
       </c>
       <c r="F129">
-        <v>0.03037274323794814</v>
+        <v>3.0372743237948141E-2</v>
       </c>
       <c r="G129">
-        <v>0.04809937566869685</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>4.8099375668696848E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>131</v>
       </c>
@@ -3349,19 +3429,19 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>0.03629903575526783</v>
+        <v>3.6299035755267828E-2</v>
       </c>
       <c r="E130">
         <v>0.120927010486268</v>
       </c>
       <c r="F130">
-        <v>0.02839186730647749</v>
+        <v>2.839186730647749E-2</v>
       </c>
       <c r="G130">
-        <v>0.04562845960788038</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>4.5628459607880381E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>132</v>
       </c>
@@ -3372,19 +3452,19 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>0.03574058905134063</v>
+        <v>3.5740589051340629E-2</v>
       </c>
       <c r="E131">
         <v>0.1219168834925278</v>
       </c>
       <c r="F131">
-        <v>0.02789803128164027</v>
+        <v>2.789803128164027E-2</v>
       </c>
       <c r="G131">
-        <v>0.04500940206645705</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>4.5009402066457052E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>133</v>
       </c>
@@ -3395,19 +3475,19 @@
         <v>9</v>
       </c>
       <c r="D132">
-        <v>0.03071456871599585</v>
+        <v>3.0714568715995851E-2</v>
       </c>
       <c r="E132">
-        <v>0.1319869109508544</v>
+        <v>0.13198691095085441</v>
       </c>
       <c r="F132">
-        <v>0.02348116311140563</v>
+        <v>2.3481163111405631E-2</v>
       </c>
       <c r="G132">
-        <v>0.03941133688868508</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>3.9411336888685082E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>134</v>
       </c>
@@ -3418,19 +3498,19 @@
         <v>3</v>
       </c>
       <c r="D133">
-        <v>0.02903922860421426</v>
+        <v>2.9039228604214259E-2</v>
       </c>
       <c r="E133">
-        <v>0.1359025228290477</v>
+        <v>0.13590252282904769</v>
       </c>
       <c r="F133">
-        <v>0.0220211557320833</v>
+        <v>2.2021155732083301E-2</v>
       </c>
       <c r="G133">
-        <v>0.03753353501389278</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>3.7533535013892783E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>136</v>
       </c>
@@ -3441,19 +3521,19 @@
         <v>2</v>
       </c>
       <c r="D134">
-        <v>0.02792233519635987</v>
+        <v>2.7922335196359869E-2</v>
       </c>
       <c r="E134">
-        <v>0.1387037363611038</v>
+        <v>0.13870373636110381</v>
       </c>
       <c r="F134">
-        <v>0.02105165772392529</v>
+        <v>2.1051657723925289E-2</v>
       </c>
       <c r="G134">
-        <v>0.03627798726586642</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>3.6277987265866417E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>137</v>
       </c>
@@ -3464,19 +3544,19 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.02736388849243267</v>
+        <v>2.736388849243267E-2</v>
       </c>
       <c r="E135">
-        <v>0.140167363340532</v>
+        <v>0.14016736334053201</v>
       </c>
       <c r="F135">
-        <v>0.02056812586277231</v>
+        <v>2.0568125862772312E-2</v>
       </c>
       <c r="G135">
-        <v>0.03564904764357384</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>3.5649047643573843E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>138</v>
       </c>
@@ -3487,19 +3567,19 @@
         <v>3</v>
       </c>
       <c r="D136">
-        <v>0.02568854838065108</v>
+        <v>2.5688548380651079E-2</v>
       </c>
       <c r="E136">
-        <v>0.1448373464107693</v>
+        <v>0.14483734641076931</v>
       </c>
       <c r="F136">
-        <v>0.01912268923136524</v>
+        <v>1.9122689231365241E-2</v>
       </c>
       <c r="G136">
-        <v>0.0337572902631025</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>3.37572902631025E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>139</v>
       </c>
@@ -3510,19 +3590,19 @@
         <v>2</v>
       </c>
       <c r="D137">
-        <v>0.02457165497279669</v>
+        <v>2.4571654972796689E-2</v>
       </c>
       <c r="E137">
-        <v>0.1482093087758098</v>
+        <v>0.14820930877580979</v>
       </c>
       <c r="F137">
-        <v>0.01816363191892297</v>
+        <v>1.8163631918922968E-2</v>
       </c>
       <c r="G137">
-        <v>0.03249174922062958</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>3.2491749220629577E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>140</v>
       </c>
@@ -3533,19 +3613,19 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0.02401320826886949</v>
+        <v>2.401320826886949E-2</v>
       </c>
       <c r="E138">
-        <v>0.1499818003426381</v>
+        <v>0.14998180034263811</v>
       </c>
       <c r="F138">
-        <v>0.01768556156762417</v>
+        <v>1.7685561567624169E-2</v>
       </c>
       <c r="G138">
-        <v>0.03185758435641946</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>3.1857584356419458E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>141</v>
       </c>
@@ -3556,19 +3636,19 @@
         <v>2</v>
       </c>
       <c r="D139">
-        <v>0.02289631486101509</v>
+        <v>2.289631486101509E-2</v>
       </c>
       <c r="E139">
         <v>0.1537171766035586</v>
       </c>
       <c r="F139">
-        <v>0.01673250140728474</v>
+        <v>1.6732501407284741E-2</v>
       </c>
       <c r="G139">
-        <v>0.03058631085717339</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>3.058631085717339E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>142</v>
       </c>
@@ -3579,19 +3659,19 @@
         <v>6</v>
       </c>
       <c r="D140">
-        <v>0.01954563463745191</v>
+        <v>1.954563463745191E-2</v>
       </c>
       <c r="E140">
-        <v>0.1667637702019212</v>
+        <v>0.16676377020192121</v>
       </c>
       <c r="F140">
-        <v>0.01390074846366399</v>
+        <v>1.390074846366399E-2</v>
       </c>
       <c r="G140">
-        <v>0.02674631214046029</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>2.674631214046029E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>143</v>
       </c>
@@ -3602,19 +3682,19 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>0.01842874122959751</v>
+        <v>1.842874122959751E-2</v>
       </c>
       <c r="E141">
         <v>0.1718771560841082</v>
       </c>
       <c r="F141">
-        <v>0.01296720032830938</v>
+        <v>1.296720032830938E-2</v>
       </c>
       <c r="G141">
-        <v>0.02545643038659276</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>2.545643038659276E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>144</v>
       </c>
@@ -3625,19 +3705,19 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>0.01619495441388872</v>
+        <v>1.6194954413888719E-2</v>
       </c>
       <c r="E142">
         <v>0.1836341065848614</v>
       </c>
       <c r="F142">
-        <v>0.01111846300376819</v>
+        <v>1.1118463003768189E-2</v>
       </c>
       <c r="G142">
-        <v>0.02285920969739533</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>2.2859209697395331E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>145</v>
       </c>
@@ -3648,19 +3728,19 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>0.01507806100603433</v>
+        <v>1.507806100603433E-2</v>
       </c>
       <c r="E143">
-        <v>0.1904619739411718</v>
+        <v>0.19046197394117181</v>
       </c>
       <c r="F143">
-        <v>0.01020448183365607</v>
+        <v>1.0204481833656069E-2</v>
       </c>
       <c r="G143">
-        <v>0.02155074079236857</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>2.1550740792368569E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>146</v>
       </c>
@@ -3671,19 +3751,19 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.01451961430210713</v>
+        <v>1.4519614302107129E-2</v>
       </c>
       <c r="E144">
-        <v>0.194165560648816</v>
+        <v>0.19416556064881599</v>
       </c>
       <c r="F144">
-        <v>0.009750405000344178</v>
+        <v>9.750405000344178E-3</v>
       </c>
       <c r="G144">
-        <v>0.02089374624904152</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>2.0893746249041521E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>147</v>
       </c>
@@ -3694,19 +3774,19 @@
         <v>6</v>
       </c>
       <c r="D145">
-        <v>0.01116893407854395</v>
+        <v>1.1168934078543949E-2</v>
       </c>
       <c r="E145">
-        <v>0.2218980091855954</v>
+        <v>0.22189800918559541</v>
       </c>
       <c r="F145">
-        <v>0.007074430781871229</v>
+        <v>7.0744307818712288E-3</v>
       </c>
       <c r="G145">
-        <v>0.01690601035535393</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>1.6906010355353929E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>148</v>
       </c>
@@ -3717,19 +3797,19 @@
         <v>3</v>
       </c>
       <c r="D146">
-        <v>0.009493593966762354</v>
+        <v>9.493593966762354E-3</v>
       </c>
       <c r="E146">
-        <v>0.240961108671701</v>
+        <v>0.24096110867170101</v>
       </c>
       <c r="F146">
-        <v>0.005775156238866919</v>
+        <v>5.7751562388669193E-3</v>
       </c>
       <c r="G146">
-        <v>0.0148757928874611</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>1.48757928874611E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>149</v>
       </c>
@@ -3740,19 +3820,19 @@
         <v>4</v>
       </c>
       <c r="D147">
-        <v>0.007259807151053565</v>
+        <v>7.2598071510535647E-3</v>
       </c>
       <c r="E147">
-        <v>0.2759742803299023</v>
+        <v>0.27597428032990229</v>
       </c>
       <c r="F147">
-        <v>0.004098559303793277</v>
+        <v>4.0985593037932769E-3</v>
       </c>
       <c r="G147">
-        <v>0.01211701380624578</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>1.211701380624578E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>152</v>
       </c>
@@ -3763,19 +3843,19 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>0.006701360447126368</v>
+        <v>6.701360447126368E-3</v>
       </c>
       <c r="E148">
-        <v>0.2873535449822464</v>
+        <v>0.28735354498224641</v>
       </c>
       <c r="F148">
-        <v>0.003692117583948133</v>
+        <v>3.6921175839481329E-3</v>
       </c>
       <c r="G148">
-        <v>0.01141563193508893</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>1.1415631935088931E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>153</v>
       </c>
@@ -3786,19 +3866,19 @@
         <v>3</v>
       </c>
       <c r="D149">
-        <v>0.005026020335344776</v>
+        <v>5.0260203353447762E-3</v>
       </c>
       <c r="E149">
-        <v>0.3321894603861503</v>
+        <v>0.33218946038615033</v>
       </c>
       <c r="F149">
-        <v>0.002513842912741982</v>
+        <v>2.5138429127419819E-3</v>
       </c>
       <c r="G149">
-        <v>0.009274396215399423</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>9.274396215399423E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>154</v>
       </c>
@@ -3809,19 +3889,19 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>0.004467573631417579</v>
+        <v>4.4675736314175787E-3</v>
       </c>
       <c r="E150">
         <v>0.3524751430676078</v>
       </c>
       <c r="F150">
-        <v>0.00213820577722617</v>
+        <v>2.1382057772261699E-3</v>
       </c>
       <c r="G150">
-        <v>0.008545467796203857</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>8.5454677962038574E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>156</v>
       </c>
@@ -3832,19 +3912,19 @@
         <v>2</v>
       </c>
       <c r="D151">
-        <v>0.003350680223563184</v>
+        <v>3.350680223563184E-3</v>
       </c>
       <c r="E151">
-        <v>0.4073148575085339</v>
+        <v>0.40731485750853391</v>
       </c>
       <c r="F151">
-        <v>0.001422216587615405</v>
+        <v>1.4222165876154049E-3</v>
       </c>
       <c r="G151">
-        <v>0.007057487878365646</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>7.0574878783656462E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>157</v>
       </c>
@@ -3855,19 +3935,19 @@
         <v>3</v>
       </c>
       <c r="D152">
-        <v>0.001675340111781592</v>
+        <v>1.675340111781592E-3</v>
       </c>
       <c r="E152">
-        <v>0.5766906101315192</v>
+        <v>0.57669061013151923</v>
       </c>
       <c r="F152">
-        <v>0.0004865692731506062</v>
+        <v>4.865692731506062E-4</v>
       </c>
       <c r="G152">
-        <v>0.004720949494088722</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>4.7209494940887217E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>159</v>
       </c>
@@ -3880,10 +3960,436 @@
       <c r="D153">
         <v>0</v>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DA7A62-D1EF-4D86-90E1-3547E0FDBE98}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="12.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1945</v>
+      </c>
+      <c r="C2">
+        <v>243</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.87506426735218512</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8.5676862876867509E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.85954466248133254</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.88898128955470634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1693</v>
+      </c>
+      <c r="C3">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.8435350763843863</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.771534789384877E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.82660768303043319</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.85895354320921236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1631</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.80629747644589711</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.112649656535851E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.7880035133648633</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.82319427337304918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1555</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.77570483907592414</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.221316121893264E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.75647570623135663</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.79362895327766281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1493</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.75440283076908354</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.2964342511379959E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.73460736496029111</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.77295770053491575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1447</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.73302721496982126</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.371957457940169E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.71272420521432434</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.75215430684449891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1404</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.70274546392405934</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.4795879997793721E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.68182296419897692</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.72258435874295346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1345</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.67975602123806778</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.562252057729499E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.65843593104110598</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.70006319830062802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1298</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.6619503935631107</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.6272257527492059E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.64036124108276804</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.68258160195453532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1262</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.64569012240585522</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.6874271033403401E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.62388394113308232</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.6665887726724411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>972</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.51087973294818168</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.238129471370141E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.48823820489638431</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.53304127797813838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>780</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.41701513199397822</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.7153974282278219E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.39474860664633887</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.43911285137569273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>594</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.31975806534284329</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.3672817436068619E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.29875376301197282</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.34093383863148058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>377</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.20487735339420729</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.5758668370758121E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.1868191135268055</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.22354376583303079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.4595145892682627E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9.7457500633055208E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.4813898425779701E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6.5681645308086262E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>157</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.675340111781592E-3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.57669061013151923</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.865692731506062E-4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4.7209494940887217E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>159</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
